--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Character" sheetId="1" r:id="rId1"/>
-    <sheet name="欄位說明" sheetId="2" r:id="rId2"/>
+    <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
+    <sheet name="#欄位說明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -56,9 +56,6 @@
     <t>n_Str</t>
   </si>
   <si>
-    <t>n_WeaponType1Raito</t>
-  </si>
-  <si>
     <t>n_WeaponType2Raito</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>角色力量</t>
   </si>
   <si>
-    <t>手槍攻擊倍率</t>
-  </si>
-  <si>
     <t>輕型攻擊倍率</t>
   </si>
   <si>
@@ -201,13 +195,159 @@
   </si>
   <si>
     <t>解鎖參數</t>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>人物編號用，唯一流水號</t>
+  </si>
+  <si>
+    <t>企劃用，程式用不到</t>
+  </si>
+  <si>
+    <t>讀取字串表ID名稱，用來顯示介面上</t>
+  </si>
+  <si>
+    <t>讀取字串表ID描述，用來顯示介面上</t>
+  </si>
+  <si>
+    <t>角色初始最大血量</t>
+  </si>
+  <si>
+    <t>角色初始使用的武器，玩家可以透過介面中更換</t>
+  </si>
+  <si>
+    <t>角色從目前所在格移動到下一格所需秒數(偵數)</t>
+  </si>
+  <si>
+    <t>移動完成後需要等待多久才能再移動
+目前預設都是0，考量未來有其他角色可能要設計會停在原位才先預留</t>
+  </si>
+  <si>
+    <t>每當觸發再生時恢復的血量值</t>
+  </si>
+  <si>
+    <t>每X秒恢復觸發一次恢復生命</t>
+  </si>
+  <si>
+    <t>影響武器傷害加成
+計算為 力量+武器傷害</t>
+  </si>
+  <si>
+    <t>影響玩家使用的武器造成的傷害倍率
+當玩家持有不同武器類型時造成的傷害會計算影響
+(武器傷害+角色力量)*攻擊倍率</t>
+  </si>
+  <si>
+    <t>角色造成爆擊機率</t>
+  </si>
+  <si>
+    <t>角色造成爆擊後的傷害倍率
+造成傷害x爆擊倍率</t>
+  </si>
+  <si>
+    <t>受到傷害時優先於生命扣除</t>
+  </si>
+  <si>
+    <t>造成傷害時，有多少%機率會偷取生命1</t>
+  </si>
+  <si>
+    <t>偷取生命發動時，會恢復多少生命數值</t>
+  </si>
+  <si>
+    <t>受到傷害時，有多少%機率會迴避掉傷害</t>
+  </si>
+  <si>
+    <t>影響玩家攜帶的技能冷卻(%)
+計算方式：技能*(1-玩家冷卻CD%)=目前冷卻時間</t>
+  </si>
+  <si>
+    <t>影響角色獲取更高獎勵的數值
+1.影響打死怪物掉落機率更高
+2.影響商店或醫療稀有度獎勵品更高機率</t>
+  </si>
+  <si>
+    <t>讀取技能表ID，預設的初始技能
+技能表裡面設定各ID的技能的功能</t>
+  </si>
+  <si>
+    <t>讀取Buff表ID，預設自帶的Buff效果</t>
+  </si>
+  <si>
+    <t>角色受到傷害時播放音效檔</t>
+  </si>
+  <si>
+    <t>角色死亡時播放音效檔</t>
+  </si>
+  <si>
+    <t>角色通關時播放音效檔</t>
+  </si>
+  <si>
+    <t>0=初始
+1=破關進度解鎖
+2=打倒指定Boss後解鎖
+3=收集到指定道具時解鎖
+4=死亡超過一定次數後解鎖
+5=通關一定次數後解鎖
+6=事件觸發</t>
+  </si>
+  <si>
+    <t>對應條件的數值
+0 = 0
+1= 填寫關卡ID
+2= 填寫Boss ID (敵人ID)
+3= 填寫道具ID
+4= 填寫死亡次數
+5= 填寫通關次數 (打倒最後Boss後才判定通關)
+6= 事件ID</t>
+  </si>
+  <si>
+    <t>CharacterData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,8 +376,38 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +432,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -286,11 +474,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -307,9 +535,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -611,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,25 +883,25 @@
     <col min="9" max="9" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="19.625" style="4"/>
+    <col min="12" max="14" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="19.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>2</v>
@@ -730,16 +984,13 @@
         <v>2</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -827,103 +1078,97 @@
       <c r="AC2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -955,9 +1200,8 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -989,9 +1233,8 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1023,9 +1266,8 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1057,9 +1299,8 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1091,9 +1332,8 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1125,9 +1365,8 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1159,9 +1398,8 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1193,9 +1431,8 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1227,9 +1464,8 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1261,9 +1497,8 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1293,9 +1528,8 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1325,9 +1559,8 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1357,9 +1590,8 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1389,9 +1621,8 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1421,9 +1652,8 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1453,9 +1683,8 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1485,9 +1714,8 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1517,9 +1745,8 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1549,9 +1776,8 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1581,9 +1807,8 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1613,9 +1838,8 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1645,9 +1869,8 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1677,9 +1900,8 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1709,9 +1931,8 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1741,9 +1962,8 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1773,9 +1993,8 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1805,9 +2024,8 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1837,9 +2055,8 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1869,9 +2086,8 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1901,9 +2117,8 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1933,9 +2148,8 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1965,7 +2179,6 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1976,14 +2189,506 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="7"/>
+    <col min="3" max="3" width="22.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataInUnity" sheetId="3" r:id="rId1"/>
     <sheet name="CharacterData" sheetId="1" r:id="rId2"/>
     <sheet name="#欄位說明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:AC13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75"/>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
   <si>
     <t>int</t>
   </si>
@@ -357,12 +357,78 @@
     <t>內容暫定</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主3</t>
+  </si>
+  <si>
+    <t>女主4</t>
+  </si>
+  <si>
+    <t>女主5</t>
+  </si>
+  <si>
+    <t>女主2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵1號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵2號</t>
+  </si>
+  <si>
+    <t>小兵3號</t>
+  </si>
+  <si>
+    <t>小兵4號</t>
+  </si>
+  <si>
+    <t>小兵5號</t>
+  </si>
+  <si>
+    <t>小兵6號</t>
+  </si>
+  <si>
+    <t>小兵7號</t>
+  </si>
+  <si>
+    <t>小兵8號</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,8 +506,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +555,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -565,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -621,6 +700,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1923,55 +2008,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC35"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="19.625" style="4"/>
+    <col min="1" max="1" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2033,1210 +2103,1592 @@
         <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="5">
+    <row r="4" spans="1:31" s="21" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+    </row>
+    <row r="5" spans="1:31" outlineLevel="1">
+      <c r="A5" s="5">
+        <f>B5+C5</f>
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="5">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="5">
+        <f>A5+20200</f>
+        <v>20201</v>
+      </c>
+      <c r="F5" s="5">
+        <f>E5+300</f>
+        <v>20501</v>
+      </c>
+      <c r="G5" s="5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>100</v>
+      </c>
+      <c r="O5" s="5">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>150</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" outlineLevel="1">
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A18" si="0">B6+C6</f>
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="5">
+      <c r="B6" s="5">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E9" si="1">A6+20200</f>
+        <v>20202</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F9" si="2">E6+300</f>
+        <v>20502</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>100</v>
+      </c>
+      <c r="M6" s="5">
+        <v>10</v>
+      </c>
+      <c r="N6" s="5">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>150</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" outlineLevel="1">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="5">
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B9" si="3">B6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>20203</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>20503</v>
+      </c>
+      <c r="G7" s="5">
+        <v>100</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
+        <v>100</v>
+      </c>
+      <c r="O7" s="5">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>150</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" outlineLevel="1">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="5">
+      <c r="B8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C7+1</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>20204</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>20504</v>
+      </c>
+      <c r="G8" s="5">
+        <v>100</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>100</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5">
+        <v>100</v>
+      </c>
+      <c r="O8" s="5">
+        <v>100</v>
+      </c>
+      <c r="P8" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="R8" s="5">
+        <v>150</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" outlineLevel="1">
       <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <f>C8+1</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>20205</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>20505</v>
+      </c>
+      <c r="G9" s="5">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>100</v>
+      </c>
+      <c r="M9" s="5">
+        <v>10</v>
+      </c>
+      <c r="N9" s="5">
+        <v>100</v>
+      </c>
+      <c r="O9" s="5">
+        <v>100</v>
+      </c>
+      <c r="P9" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>5</v>
+      </c>
+      <c r="R9" s="5">
+        <v>150</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="21" customFormat="1">
+      <c r="A10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:31" outlineLevel="1">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B11" s="5">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5">
+        <f>C10+1</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11:E18" si="4">A11+20200</f>
+        <v>20301</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F18" si="5">E11+300</f>
+        <v>20601</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>100</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" s="5">
+        <v>100</v>
+      </c>
+      <c r="O11" s="5">
+        <v>100</v>
+      </c>
+      <c r="P11" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>5</v>
+      </c>
+      <c r="R11" s="5">
+        <v>150</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" outlineLevel="1">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B11</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:C18" si="6">C11+1</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="4"/>
+        <v>20302</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="5"/>
+        <v>20602</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>100</v>
+      </c>
+      <c r="M12" s="5">
+        <v>10</v>
+      </c>
+      <c r="N12" s="5">
+        <v>100</v>
+      </c>
+      <c r="O12" s="5">
+        <v>100</v>
+      </c>
+      <c r="P12" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>150</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" outlineLevel="1">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" ref="B13:B18" si="7">B12</f>
+        <v>100</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="4"/>
+        <v>20303</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="5"/>
+        <v>20603</v>
+      </c>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5">
+        <v>100</v>
+      </c>
+      <c r="O13" s="5">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>5</v>
+      </c>
+      <c r="R13" s="5">
+        <v>150</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" outlineLevel="1">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
+        <v>20304</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="5"/>
+        <v>20604</v>
+      </c>
+      <c r="G14" s="5">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>100</v>
+      </c>
+      <c r="M14" s="5">
+        <v>10</v>
+      </c>
+      <c r="N14" s="5">
+        <v>100</v>
+      </c>
+      <c r="O14" s="5">
+        <v>100</v>
+      </c>
+      <c r="P14" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>5</v>
+      </c>
+      <c r="R14" s="5">
+        <v>150</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" outlineLevel="1">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="4"/>
+        <v>20305</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="5"/>
+        <v>20605</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>100</v>
+      </c>
+      <c r="M15" s="5">
+        <v>10</v>
+      </c>
+      <c r="N15" s="5">
+        <v>100</v>
+      </c>
+      <c r="O15" s="5">
+        <v>100</v>
+      </c>
+      <c r="P15" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>5</v>
+      </c>
+      <c r="R15" s="5">
+        <v>150</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" outlineLevel="1">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="5">
+      <c r="D16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="4"/>
+        <v>20306</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="5"/>
+        <v>20606</v>
+      </c>
+      <c r="G16" s="5">
+        <v>60</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>100</v>
+      </c>
+      <c r="M16" s="5">
+        <v>10</v>
+      </c>
+      <c r="N16" s="5">
+        <v>100</v>
+      </c>
+      <c r="O16" s="5">
+        <v>100</v>
+      </c>
+      <c r="P16" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>5</v>
+      </c>
+      <c r="R16" s="5">
+        <v>150</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" outlineLevel="1">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="5">
+      <c r="D17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="4"/>
+        <v>20307</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="5"/>
+        <v>20607</v>
+      </c>
+      <c r="G17" s="5">
+        <v>70</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>100</v>
+      </c>
+      <c r="M17" s="5">
+        <v>10</v>
+      </c>
+      <c r="N17" s="5">
+        <v>100</v>
+      </c>
+      <c r="O17" s="5">
+        <v>100</v>
+      </c>
+      <c r="P17" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>5</v>
+      </c>
+      <c r="R17" s="5">
+        <v>150</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" outlineLevel="1">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="5">
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
+        <v>20308</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="5"/>
+        <v>20608</v>
+      </c>
+      <c r="G18" s="5">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>100</v>
+      </c>
+      <c r="M18" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-    </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
+      <c r="N18" s="5">
+        <v>100</v>
+      </c>
+      <c r="O18" s="5">
+        <v>100</v>
+      </c>
+      <c r="P18" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>5</v>
+      </c>
+      <c r="R18" s="5">
+        <v>150</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
   <si>
     <t>int</t>
   </si>
@@ -422,6 +422,29 @@
   </si>
   <si>
     <t>小兵8號</t>
+  </si>
+  <si>
+    <t>n_AttackSkillSFX</t>
+  </si>
+  <si>
+    <t>n_DefendSkillSFX</t>
+  </si>
+  <si>
+    <t>n_HitSFX</t>
+  </si>
+  <si>
+    <t>n_DeadSFX</t>
+  </si>
+  <si>
+    <t>n_VictorySFX</t>
+  </si>
+  <si>
+    <t>角色放防禦型技能音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色放攻擊型技能音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2011,10 +2034,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -2029,7 +2052,7 @@
     <col min="8" max="16384" width="17.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>0</v>
@@ -2123,8 +2146,14 @@
       <c r="AE1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2204,22 +2233,28 @@
         <v>25</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:33">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2299,22 +2334,28 @@
         <v>54</v>
       </c>
       <c r="AA3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="21" customFormat="1">
+    <row r="4" spans="1:33" s="21" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>105</v>
       </c>
@@ -2352,8 +2393,10 @@
       <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
       <c r="AE4" s="20"/>
-    </row>
-    <row r="5" spans="1:31" outlineLevel="1">
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+    </row>
+    <row r="5" spans="1:33" outlineLevel="1">
       <c r="A5" s="5">
         <f>B5+C5</f>
         <v>1</v>
@@ -2451,8 +2494,14 @@
       <c r="AE5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" outlineLevel="1">
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" outlineLevel="1">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A18" si="0">B6+C6</f>
         <v>2</v>
@@ -2551,8 +2600,14 @@
       <c r="AE6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" outlineLevel="1">
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" outlineLevel="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2651,8 +2706,14 @@
       <c r="AE7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" outlineLevel="1">
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" outlineLevel="1">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2751,8 +2812,14 @@
       <c r="AE8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" outlineLevel="1">
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" outlineLevel="1">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2851,8 +2918,14 @@
       <c r="AE9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="21" customFormat="1">
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="21" customFormat="1">
       <c r="A10" s="20" t="s">
         <v>105</v>
       </c>
@@ -2890,8 +2963,10 @@
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
-    </row>
-    <row r="11" spans="1:31" outlineLevel="1">
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+    </row>
+    <row r="11" spans="1:33" outlineLevel="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -2989,8 +3064,14 @@
       <c r="AE11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" outlineLevel="1">
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" outlineLevel="1">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -3089,8 +3170,14 @@
       <c r="AE12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" outlineLevel="1">
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" outlineLevel="1">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -3189,8 +3276,14 @@
       <c r="AE13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" outlineLevel="1">
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" outlineLevel="1">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -3289,8 +3382,14 @@
       <c r="AE14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" outlineLevel="1">
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" outlineLevel="1">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -3389,8 +3488,14 @@
       <c r="AE15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" outlineLevel="1">
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" outlineLevel="1">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -3489,8 +3594,14 @@
       <c r="AE16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" outlineLevel="1">
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" outlineLevel="1">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -3589,8 +3700,14 @@
       <c r="AE17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" outlineLevel="1">
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" outlineLevel="1">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -3687,6 +3804,12 @@
         <v>0</v>
       </c>
       <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
         <v>0</v>
       </c>
     </row>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataInUnity" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="130">
   <si>
     <t>int</t>
   </si>
@@ -344,20 +344,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>n_Remark</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>女主1</t>
-  </si>
-  <si>
-    <t>女主2</t>
-  </si>
-  <si>
-    <t>內容暫定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -444,6 +430,18 @@
   </si>
   <si>
     <t>角色放攻擊型技能音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_prefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,27 +509,15 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -587,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -647,19 +633,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -667,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -709,26 +682,17 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,990 +999,1187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="40.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="15" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AF1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>102</v>
+      <c r="B2" s="18">
+        <v>20201</v>
       </c>
       <c r="C2" s="18">
-        <v>101</v>
+        <v>20301</v>
       </c>
       <c r="D2" s="18">
-        <v>201</v>
-      </c>
-      <c r="E2" s="18">
-        <v>100</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.5</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="5">
         <v>0.5</v>
       </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
-        <v>100</v>
-      </c>
-      <c r="K2" s="18">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5">
+        <v>100</v>
+      </c>
+      <c r="O2" s="5">
         <v>5</v>
       </c>
-      <c r="L2" s="18">
-        <v>100</v>
-      </c>
-      <c r="M2" s="18">
-        <v>100</v>
-      </c>
-      <c r="N2" s="18">
-        <v>100</v>
-      </c>
-      <c r="O2" s="18">
-        <v>100</v>
-      </c>
-      <c r="P2" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="18">
+      <c r="P2" s="5">
         <v>150</v>
       </c>
-      <c r="R2" s="18">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0</v>
-      </c>
-      <c r="X2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="18">
+        <v>20202</v>
+      </c>
+      <c r="C3" s="18">
+        <v>20302</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>100</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5">
+        <v>100</v>
+      </c>
+      <c r="M3" s="5">
+        <v>100</v>
+      </c>
+      <c r="N3" s="5">
+        <v>100</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>101</v>
+      </c>
+      <c r="B4" s="18">
+        <v>20301</v>
+      </c>
+      <c r="C4" s="18">
+        <v>20601</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>100</v>
+      </c>
+      <c r="K4" s="5">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5">
+        <v>100</v>
+      </c>
+      <c r="N4" s="5">
+        <v>100</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>102</v>
+      </c>
+      <c r="B5" s="18">
+        <v>20302</v>
+      </c>
+      <c r="C5" s="18">
+        <v>20602</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
+        <v>100</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>103</v>
       </c>
-      <c r="C3" s="18">
-        <v>102</v>
-      </c>
-      <c r="D3" s="18">
-        <v>202</v>
-      </c>
-      <c r="E3" s="18">
-        <v>100</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16">
-        <v>0</v>
-      </c>
-      <c r="T3" s="16">
-        <v>0</v>
-      </c>
-      <c r="U3" s="16">
-        <v>0</v>
-      </c>
-      <c r="V3" s="16">
-        <v>0</v>
-      </c>
-      <c r="W3" s="16">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="B6" s="18">
+        <v>20303</v>
+      </c>
+      <c r="C6" s="18">
+        <v>20603</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>100</v>
+      </c>
+      <c r="M6" s="5">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5">
+        <v>100</v>
+      </c>
+      <c r="O6" s="5">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>104</v>
       </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="16">
-        <v>0</v>
-      </c>
-      <c r="S4" s="16">
-        <v>0</v>
-      </c>
-      <c r="T4" s="16">
-        <v>0</v>
-      </c>
-      <c r="U4" s="16">
-        <v>0</v>
-      </c>
-      <c r="V4" s="16">
-        <v>0</v>
-      </c>
-      <c r="W4" s="16">
-        <v>0</v>
-      </c>
-      <c r="X4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="5">
+      <c r="B7" s="18">
+        <v>20304</v>
+      </c>
+      <c r="C7" s="18">
+        <v>20604</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5">
+        <v>100</v>
+      </c>
+      <c r="O7" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
-        <v>0</v>
-      </c>
-      <c r="S6" s="16">
-        <v>0</v>
-      </c>
-      <c r="T6" s="16">
-        <v>0</v>
-      </c>
-      <c r="U6" s="16">
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
-        <v>0</v>
-      </c>
-      <c r="W6" s="16">
-        <v>0</v>
-      </c>
-      <c r="X6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <v>0</v>
-      </c>
-      <c r="S10" s="16">
-        <v>0</v>
-      </c>
-      <c r="T10" s="16">
-        <v>0</v>
-      </c>
-      <c r="U10" s="16">
-        <v>0</v>
-      </c>
-      <c r="V10" s="16">
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="5">
+      <c r="P7" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>105</v>
+      </c>
+      <c r="B8" s="18">
+        <v>20305</v>
+      </c>
+      <c r="C8" s="18">
+        <v>20605</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
-        <v>0</v>
-      </c>
-      <c r="S11" s="16">
-        <v>0</v>
-      </c>
-      <c r="T11" s="16">
-        <v>0</v>
-      </c>
-      <c r="U11" s="16">
-        <v>0</v>
-      </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0</v>
-      </c>
-      <c r="X11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="16">
+      <c r="L8" s="5">
+        <v>100</v>
+      </c>
+      <c r="M8" s="5">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5">
+        <v>100</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>106</v>
+      </c>
+      <c r="B9" s="18">
+        <v>20306</v>
+      </c>
+      <c r="C9" s="18">
+        <v>20606</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5">
+        <v>100</v>
+      </c>
+      <c r="M9" s="5">
+        <v>100</v>
+      </c>
+      <c r="N9" s="5">
+        <v>100</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>107</v>
+      </c>
+      <c r="B10" s="18">
+        <v>20307</v>
+      </c>
+      <c r="C10" s="18">
+        <v>20607</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>70</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5">
+        <v>100</v>
+      </c>
+      <c r="M10" s="5">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5">
+        <v>100</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>108</v>
+      </c>
+      <c r="B11" s="18">
+        <v>20308</v>
+      </c>
+      <c r="C11" s="18">
+        <v>20608</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>80</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5">
+        <v>100</v>
+      </c>
+      <c r="M11" s="5">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5">
+        <v>100</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
+      <c r="P11" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2034,13 +2195,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="4" bestFit="1" customWidth="1"/>
@@ -2048,19 +2209,20 @@
     <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.75" style="4"/>
+    <col min="7" max="7" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2072,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2152,16 +2314,19 @@
       <c r="AG1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -2173,96 +2338,99 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -2274,129 +2442,133 @@
         <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="AB3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AC3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="21" customFormat="1">
-      <c r="A4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-    </row>
-    <row r="5" spans="1:33" outlineLevel="1">
+    <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+    </row>
+    <row r="5" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>B5+C5</f>
         <v>1</v>
@@ -2409,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5">
         <f>A5+20200</f>
@@ -2419,30 +2591,28 @@
         <f>E5+300</f>
         <v>20501</v>
       </c>
-      <c r="G5" s="5">
-        <v>100</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <v>0.5</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5">
         <v>10</v>
       </c>
-      <c r="N5" s="5">
-        <v>100</v>
-      </c>
       <c r="O5" s="5">
         <v>100</v>
       </c>
@@ -2450,14 +2620,14 @@
         <v>100</v>
       </c>
       <c r="Q5" s="5">
+        <v>100</v>
+      </c>
+      <c r="R5" s="5">
         <v>5</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>150</v>
       </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
       <c r="T5" s="5">
         <v>0</v>
       </c>
@@ -2500,8 +2670,11 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" outlineLevel="1">
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A18" si="0">B6+C6</f>
         <v>2</v>
@@ -2515,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E9" si="1">A6+20200</f>
@@ -2525,30 +2698,28 @@
         <f t="shared" ref="F6:F9" si="2">E6+300</f>
         <v>20502</v>
       </c>
-      <c r="G6" s="5">
-        <v>100</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="5">
         <v>2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.5</v>
       </c>
       <c r="J6" s="5">
         <v>0.5</v>
       </c>
       <c r="K6" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5">
         <v>10</v>
       </c>
-      <c r="N6" s="5">
-        <v>100</v>
-      </c>
       <c r="O6" s="5">
         <v>100</v>
       </c>
@@ -2556,14 +2727,14 @@
         <v>100</v>
       </c>
       <c r="Q6" s="5">
+        <v>100</v>
+      </c>
+      <c r="R6" s="5">
         <v>5</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>150</v>
       </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
       <c r="T6" s="5">
         <v>0</v>
       </c>
@@ -2606,8 +2777,11 @@
       <c r="AG6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" outlineLevel="1">
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2621,7 +2795,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
@@ -2631,30 +2805,28 @@
         <f t="shared" si="2"/>
         <v>20503</v>
       </c>
-      <c r="G7" s="5">
-        <v>100</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="5">
         <v>3</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.5</v>
       </c>
       <c r="J7" s="5">
         <v>0.5</v>
       </c>
       <c r="K7" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5">
         <v>10</v>
       </c>
-      <c r="N7" s="5">
-        <v>100</v>
-      </c>
       <c r="O7" s="5">
         <v>100</v>
       </c>
@@ -2662,14 +2834,14 @@
         <v>100</v>
       </c>
       <c r="Q7" s="5">
+        <v>100</v>
+      </c>
+      <c r="R7" s="5">
         <v>5</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>150</v>
       </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
       <c r="T7" s="5">
         <v>0</v>
       </c>
@@ -2712,8 +2884,11 @@
       <c r="AG7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" outlineLevel="1">
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2727,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
@@ -2737,30 +2912,28 @@
         <f t="shared" si="2"/>
         <v>20504</v>
       </c>
-      <c r="G8" s="5">
-        <v>100</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5">
+        <v>100</v>
+      </c>
+      <c r="I8" s="5">
         <v>4</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.5</v>
       </c>
       <c r="J8" s="5">
         <v>0.5</v>
       </c>
       <c r="K8" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5">
         <v>10</v>
       </c>
-      <c r="N8" s="5">
-        <v>100</v>
-      </c>
       <c r="O8" s="5">
         <v>100</v>
       </c>
@@ -2768,14 +2941,14 @@
         <v>100</v>
       </c>
       <c r="Q8" s="5">
+        <v>100</v>
+      </c>
+      <c r="R8" s="5">
         <v>5</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>150</v>
       </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
       <c r="T8" s="5">
         <v>0</v>
       </c>
@@ -2818,8 +2991,11 @@
       <c r="AG8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" outlineLevel="1">
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2833,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
@@ -2843,30 +3019,28 @@
         <f t="shared" si="2"/>
         <v>20505</v>
       </c>
-      <c r="G9" s="5">
-        <v>100</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5">
         <v>5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.5</v>
       </c>
       <c r="J9" s="5">
         <v>0.5</v>
       </c>
       <c r="K9" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5">
+        <v>100</v>
+      </c>
+      <c r="N9" s="5">
         <v>10</v>
       </c>
-      <c r="N9" s="5">
-        <v>100</v>
-      </c>
       <c r="O9" s="5">
         <v>100</v>
       </c>
@@ -2874,14 +3048,14 @@
         <v>100</v>
       </c>
       <c r="Q9" s="5">
+        <v>100</v>
+      </c>
+      <c r="R9" s="5">
         <v>5</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>150</v>
       </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
       <c r="T9" s="5">
         <v>0</v>
       </c>
@@ -2924,49 +3098,53 @@
       <c r="AG9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="21" customFormat="1">
-      <c r="A10" s="20" t="s">
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="1:33" outlineLevel="1">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+    </row>
+    <row r="11" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -2979,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ref="E11:E18" si="4">A11+20200</f>
@@ -2989,12 +3167,10 @@
         <f t="shared" ref="F11:F18" si="5">E11+300</f>
         <v>20601</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
@@ -3002,17 +3178,17 @@
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5">
         <v>10</v>
       </c>
-      <c r="N11" s="5">
-        <v>100</v>
-      </c>
       <c r="O11" s="5">
         <v>100</v>
       </c>
@@ -3020,14 +3196,14 @@
         <v>100</v>
       </c>
       <c r="Q11" s="5">
+        <v>100</v>
+      </c>
+      <c r="R11" s="5">
         <v>5</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>150</v>
       </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
       <c r="T11" s="5">
         <v>0</v>
       </c>
@@ -3070,8 +3246,11 @@
       <c r="AG11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" outlineLevel="1">
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -3085,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="4"/>
@@ -3095,12 +3274,10 @@
         <f t="shared" si="5"/>
         <v>20602</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <v>20</v>
       </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
       <c r="I12" s="5">
         <v>1</v>
       </c>
@@ -3108,17 +3285,17 @@
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
+        <v>100</v>
+      </c>
+      <c r="N12" s="5">
         <v>10</v>
       </c>
-      <c r="N12" s="5">
-        <v>100</v>
-      </c>
       <c r="O12" s="5">
         <v>100</v>
       </c>
@@ -3126,14 +3303,14 @@
         <v>100</v>
       </c>
       <c r="Q12" s="5">
+        <v>100</v>
+      </c>
+      <c r="R12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>150</v>
       </c>
-      <c r="S12" s="5">
-        <v>0</v>
-      </c>
       <c r="T12" s="5">
         <v>0</v>
       </c>
@@ -3176,8 +3353,11 @@
       <c r="AG12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" outlineLevel="1">
+      <c r="AH12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -3191,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="4"/>
@@ -3201,12 +3381,10 @@
         <f t="shared" si="5"/>
         <v>20603</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <v>30</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
       <c r="I13" s="5">
         <v>1</v>
       </c>
@@ -3214,17 +3392,17 @@
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
+        <v>100</v>
+      </c>
+      <c r="N13" s="5">
         <v>10</v>
       </c>
-      <c r="N13" s="5">
-        <v>100</v>
-      </c>
       <c r="O13" s="5">
         <v>100</v>
       </c>
@@ -3232,14 +3410,14 @@
         <v>100</v>
       </c>
       <c r="Q13" s="5">
+        <v>100</v>
+      </c>
+      <c r="R13" s="5">
         <v>5</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>150</v>
       </c>
-      <c r="S13" s="5">
-        <v>0</v>
-      </c>
       <c r="T13" s="5">
         <v>0</v>
       </c>
@@ -3282,8 +3460,11 @@
       <c r="AG13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" outlineLevel="1">
+      <c r="AH13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -3297,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="4"/>
@@ -3307,12 +3488,10 @@
         <f t="shared" si="5"/>
         <v>20604</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>40</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
       <c r="I14" s="5">
         <v>1</v>
       </c>
@@ -3320,17 +3499,17 @@
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
+        <v>100</v>
+      </c>
+      <c r="N14" s="5">
         <v>10</v>
       </c>
-      <c r="N14" s="5">
-        <v>100</v>
-      </c>
       <c r="O14" s="5">
         <v>100</v>
       </c>
@@ -3338,14 +3517,14 @@
         <v>100</v>
       </c>
       <c r="Q14" s="5">
+        <v>100</v>
+      </c>
+      <c r="R14" s="5">
         <v>5</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>150</v>
       </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
       <c r="T14" s="5">
         <v>0</v>
       </c>
@@ -3388,8 +3567,11 @@
       <c r="AG14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" outlineLevel="1">
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -3403,7 +3585,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="4"/>
@@ -3413,12 +3595,10 @@
         <f t="shared" si="5"/>
         <v>20605</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>50</v>
       </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
       <c r="I15" s="5">
         <v>1</v>
       </c>
@@ -3426,17 +3606,17 @@
         <v>1</v>
       </c>
       <c r="K15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5">
+        <v>100</v>
+      </c>
+      <c r="N15" s="5">
         <v>10</v>
       </c>
-      <c r="N15" s="5">
-        <v>100</v>
-      </c>
       <c r="O15" s="5">
         <v>100</v>
       </c>
@@ -3444,14 +3624,14 @@
         <v>100</v>
       </c>
       <c r="Q15" s="5">
+        <v>100</v>
+      </c>
+      <c r="R15" s="5">
         <v>5</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>150</v>
       </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
       <c r="T15" s="5">
         <v>0</v>
       </c>
@@ -3494,8 +3674,11 @@
       <c r="AG15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" outlineLevel="1">
+      <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -3509,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="4"/>
@@ -3519,12 +3702,10 @@
         <f t="shared" si="5"/>
         <v>20606</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <v>60</v>
       </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
       <c r="I16" s="5">
         <v>1</v>
       </c>
@@ -3532,17 +3713,17 @@
         <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5">
+        <v>100</v>
+      </c>
+      <c r="N16" s="5">
         <v>10</v>
       </c>
-      <c r="N16" s="5">
-        <v>100</v>
-      </c>
       <c r="O16" s="5">
         <v>100</v>
       </c>
@@ -3550,14 +3731,14 @@
         <v>100</v>
       </c>
       <c r="Q16" s="5">
+        <v>100</v>
+      </c>
+      <c r="R16" s="5">
         <v>5</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>150</v>
       </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
       <c r="T16" s="5">
         <v>0</v>
       </c>
@@ -3600,8 +3781,11 @@
       <c r="AG16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" outlineLevel="1">
+      <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -3615,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="4"/>
@@ -3625,12 +3809,10 @@
         <f t="shared" si="5"/>
         <v>20607</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <v>70</v>
       </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
       <c r="I17" s="5">
         <v>1</v>
       </c>
@@ -3638,17 +3820,17 @@
         <v>1</v>
       </c>
       <c r="K17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="5">
+        <v>100</v>
+      </c>
+      <c r="N17" s="5">
         <v>10</v>
       </c>
-      <c r="N17" s="5">
-        <v>100</v>
-      </c>
       <c r="O17" s="5">
         <v>100</v>
       </c>
@@ -3656,14 +3838,14 @@
         <v>100</v>
       </c>
       <c r="Q17" s="5">
+        <v>100</v>
+      </c>
+      <c r="R17" s="5">
         <v>5</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>150</v>
       </c>
-      <c r="S17" s="5">
-        <v>0</v>
-      </c>
       <c r="T17" s="5">
         <v>0</v>
       </c>
@@ -3706,8 +3888,11 @@
       <c r="AG17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" outlineLevel="1">
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -3721,7 +3906,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="4"/>
@@ -3731,12 +3916,10 @@
         <f t="shared" si="5"/>
         <v>20608</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
         <v>80</v>
       </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
       <c r="I18" s="5">
         <v>1</v>
       </c>
@@ -3744,17 +3927,17 @@
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="5">
+        <v>100</v>
+      </c>
+      <c r="N18" s="5">
         <v>10</v>
       </c>
-      <c r="N18" s="5">
-        <v>100</v>
-      </c>
       <c r="O18" s="5">
         <v>100</v>
       </c>
@@ -3762,14 +3945,14 @@
         <v>100</v>
       </c>
       <c r="Q18" s="5">
+        <v>100</v>
+      </c>
+      <c r="R18" s="5">
         <v>5</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>150</v>
       </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
       <c r="T18" s="5">
         <v>0</v>
       </c>
@@ -3810,6 +3993,9 @@
         <v>0</v>
       </c>
       <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3828,7 +4014,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="7"/>
@@ -3837,7 +4023,7 @@
     <col min="5" max="16384" width="16.375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3845,7 +4031,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>61</v>
       </c>
@@ -3857,7 +4043,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -3869,7 +4055,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>67</v>
       </c>
@@ -3881,19 +4067,19 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>100</v>
       </c>
@@ -3901,7 +4087,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>69</v>
       </c>
@@ -3915,7 +4101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +4115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -3943,7 +4129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3957,7 +4143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4157,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +4171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +4185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="54">
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4027,7 +4213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="54">
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54">
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +4283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54">
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -4111,7 +4297,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4325,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +4367,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4381,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="40.5">
+    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4209,7 +4395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -4223,7 +4409,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27">
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4423,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -4265,7 +4451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -4279,7 +4465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -4293,7 +4479,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="94.5">
+    <row r="36" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="108">
+    <row r="37" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2197,8 +2197,8 @@
   </sheetPr>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/0_File/1_Data/002_角色表.xlsx
+++ b/0_File/1_Data/002_角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataInUnity" sheetId="3" r:id="rId1"/>
@@ -321,13 +321,120 @@
     <t>角色通關時播放音效檔</t>
   </si>
   <si>
+    <t>CharacterData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主3</t>
+  </si>
+  <si>
+    <t>女主4</t>
+  </si>
+  <si>
+    <t>女主5</t>
+  </si>
+  <si>
+    <t>女主2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵1號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兵2號</t>
+  </si>
+  <si>
+    <t>小兵3號</t>
+  </si>
+  <si>
+    <t>小兵4號</t>
+  </si>
+  <si>
+    <t>小兵5號</t>
+  </si>
+  <si>
+    <t>小兵6號</t>
+  </si>
+  <si>
+    <t>小兵7號</t>
+  </si>
+  <si>
+    <t>小兵8號</t>
+  </si>
+  <si>
+    <t>n_AttackSkillSFX</t>
+  </si>
+  <si>
+    <t>n_DefendSkillSFX</t>
+  </si>
+  <si>
+    <t>n_HitSFX</t>
+  </si>
+  <si>
+    <t>n_DeadSFX</t>
+  </si>
+  <si>
+    <t>n_VictorySFX</t>
+  </si>
+  <si>
+    <t>角色放防禦型技能音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色放攻擊型技能音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_prefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0=初始
 1=破關進度解鎖
 2=打倒指定Boss後解鎖
 3=收集到指定道具時解鎖
 4=死亡超過一定次數後解鎖
 5=通關一定次數後解鎖
-6=事件觸發</t>
+6=事件觸發
+7=研究開發</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>對應條件的數值
@@ -337,111 +444,8 @@
 3= 填寫道具ID
 4= 填寫死亡次數
 5= 填寫通關次數 (打倒最後Boss後才判定通關)
-6= 事件ID</t>
-  </si>
-  <si>
-    <t>CharacterData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人角色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>女主1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>女主3</t>
-  </si>
-  <si>
-    <t>女主4</t>
-  </si>
-  <si>
-    <t>女主5</t>
-  </si>
-  <si>
-    <t>女主2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兵1號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兵2號</t>
-  </si>
-  <si>
-    <t>小兵3號</t>
-  </si>
-  <si>
-    <t>小兵4號</t>
-  </si>
-  <si>
-    <t>小兵5號</t>
-  </si>
-  <si>
-    <t>小兵6號</t>
-  </si>
-  <si>
-    <t>小兵7號</t>
-  </si>
-  <si>
-    <t>小兵8號</t>
-  </si>
-  <si>
-    <t>n_AttackSkillSFX</t>
-  </si>
-  <si>
-    <t>n_DefendSkillSFX</t>
-  </si>
-  <si>
-    <t>n_HitSFX</t>
-  </si>
-  <si>
-    <t>n_DeadSFX</t>
-  </si>
-  <si>
-    <t>n_VictorySFX</t>
-  </si>
-  <si>
-    <t>角色放防禦型技能音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色放攻擊型技能音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_prefabName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
+6= 事件ID
+7= 填寫開發台ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -1110,19 +1114,19 @@
         <v>25</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>29</v>
@@ -2117,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2132,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2221,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -2236,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -2299,19 +2303,19 @@
         <v>25</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>29</v>
@@ -2325,10 +2329,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -2340,7 +2344,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>35</v>
@@ -2403,10 +2407,10 @@
         <v>54</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>55</v>
@@ -2426,10 +2430,10 @@
     </row>
     <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="15">
         <v>0</v>
@@ -2479,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="5">
         <f>A5+20200</f>
@@ -2586,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E9" si="1">A6+20200</f>
@@ -2693,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
@@ -2800,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
@@ -2907,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
@@ -3002,10 +3006,10 @@
     </row>
     <row r="10" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="15">
         <v>0</v>
@@ -3055,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ref="E11:E18" si="4">A11+20200</f>
@@ -3162,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="4"/>
@@ -3269,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="4"/>
@@ -3376,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="4"/>
@@ -3483,7 +3487,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="4"/>
@@ -3590,7 +3594,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="4"/>
@@ -3697,7 +3701,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="4"/>
@@ -3804,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="4"/>
@@ -3908,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3979,7 +3983,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4377,7 +4381,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4388,10 +4392,10 @@
         <v>58</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
